--- a/deden2904/evidence.xlsx
+++ b/deden2904/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deden\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC22A33A-CE16-48C8-9791-F63E8005F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575F589-8215-422F-959E-3C613484D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
   <si>
     <t>TxHash</t>
   </si>
@@ -77,24 +77,6 @@
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -643,54 +625,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1106,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,20 +1126,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>33</v>
+    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1398,10 +1372,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,37 +1395,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
+      <c r="A3" t="s">
+        <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1466,10 +1429,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1494,32 +1457,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +1481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,32 +1508,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1597,10 +1532,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1624,32 +1559,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1662,10 +1583,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,32 +1611,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/deden2904/evidence.xlsx
+++ b/deden2904/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deden\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deden\Downloads\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5575F589-8215-422F-959E-3C613484D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F454B0-15DB-4804-BFF4-0EAC66D9B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,25 +58,10 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
   </si>
   <si>
     <t>TeamName</t>
@@ -176,6 +161,162 @@
   </si>
   <si>
     <t>21E4808EE865336109D35BCE58565E6BD4DD192E00ABB186450C80AABFF8E0DE</t>
+  </si>
+  <si>
+    <t>omniflix1sxue5vc26wuwwc6f6pxrpel5umwx9zky7a0f5s</t>
+  </si>
+  <si>
+    <t>ibc/8347E7BF09CAB1981DCD0F122951D75D73E9F09E7C8F564EB9FA2EDC9560D5E3</t>
+  </si>
+  <si>
+    <t>flowa1</t>
+  </si>
+  <si>
+    <t>ibc/E3B3EAA5BF0E0B0F9A996E4EB9481382B2064987348363107A0CAF92F0D915AC</t>
+  </si>
+  <si>
+    <t>floww223</t>
+  </si>
+  <si>
+    <t>floww333</t>
+  </si>
+  <si>
+    <t>ibc/16EF3ED22A81099A874BAD53A6B50A572D1F64AC28A713BC7930550AEA8A0A0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nfloww32</t>
+  </si>
+  <si>
+    <t>ibc/75270BF6983AA712A4A4D403C2142192462CBA1C35BB2004B2D742A3267F6FAB</t>
+  </si>
+  <si>
+    <t>xflower</t>
+  </si>
+  <si>
+    <t>ibc/111B9F6F797643E32F2174A7671D28C6E5267B1EF53B7CDCFB541F1EE8992067</t>
+  </si>
+  <si>
+    <t>gxflower</t>
+  </si>
+  <si>
+    <t>ibc/2857AB0CAC9169744338EB1063EB577F9BF692EEB6BB930F535E5F8179181989</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>A9550A4E34C19F7B79FD3580D76EF6F066950159438ADB2503FC82CBAD8686FA</t>
+  </si>
+  <si>
+    <t>9D52EB7E56C3510F3718754A92B591D723522E5052D9910A3F99640BC5CF222A</t>
+  </si>
+  <si>
+    <t>278A8ABA2637BD9806682212CEC8A37757544D6CB94564E1D5E5D3DD29D423A5</t>
+  </si>
+  <si>
+    <t>D572AB3BBBEB6E293FA95B126441D15A98F92D0639BCC23F9946B2E069CEC04A</t>
+  </si>
+  <si>
+    <t>119A570C08B9F6F1EB7D05E1BE7C288412F1B53B8BEB17496C93F25212C40625</t>
+  </si>
+  <si>
+    <t>B5A5C5FA44E8E331DDBC47F58F6D56B481934616C7BB345B592C434071278139</t>
+  </si>
+  <si>
+    <t>97C0F01A454DBD97A3B9A26AEB8ED1F5F3219B26C3C2397801A3BD1A394698D0</t>
+  </si>
+  <si>
+    <t>D884E1E4B939F303240275A43A6E1260344A7E90E4D126D94E2B79DC6AA3C7E0</t>
+  </si>
+  <si>
+    <t>90719832439DBE3915A8B4B4DAC54B19AE3A5C170120E08374CCE907FB75E212</t>
+  </si>
+  <si>
+    <t>CB9CAE522F3638460F017C0973542D258524ABC45542AD9FAEC419B3CF5A98E5</t>
+  </si>
+  <si>
+    <t>E60D84FB5D59A2BE4E6AC83AAFFBD4FDD3575E879D1387429015ECA69BB0A173</t>
+  </si>
+  <si>
+    <t>E6227CB8DF49606EB53A07950C2282096C5A543D0956204BDA6E6C670C26D27F</t>
+  </si>
+  <si>
+    <t>B06C71BC87C9C94630CF5A604569DF5F4C122BB1376A667A63ED59865EC575A7</t>
+  </si>
+  <si>
+    <t>211BB4E6683C7E92CCFF9C451B7DE62DAC0B515E4FF281573AE1FF86B66974A9</t>
+  </si>
+  <si>
+    <t>7A778EA5496E590B212FF2CFE3975732D4096DA96DE91A4AA17C88E0E141D551</t>
+  </si>
+  <si>
+    <t>2C964710B5A19B1BF84313A93E67267EE807CA3D58810C5985393A4FC129C4F5</t>
+  </si>
+  <si>
+    <t>5E906F92F62A39794B6A9CA377B7F6713EEC9667F8521B3AC19F12A0E66BE22B</t>
+  </si>
+  <si>
+    <t>B25AC2BC4F6679CF770FD93BC0861A1D8316E9EF6E476D5E998BE0783D8EB576</t>
+  </si>
+  <si>
+    <t>DCFD4280B6CF088FE5B60AE7F91F318F88B6F8C96D0CA8FC61B5AAA90C77FB74</t>
+  </si>
+  <si>
+    <t>0528347008A1DEC91F573959DB38B30821D335CBD2F4BC6CC0E5532D897EBE3C</t>
+  </si>
+  <si>
+    <t>56C3482FAED3A55969AF1FE0B57238B4E34A67702CDE8C9BBB214CE37C6376D7</t>
+  </si>
+  <si>
+    <t>808BE7795D21F8F822D45C5E6151D332B3D8CE853DF4208CCC1EB0A477485B22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E80B911C4DB9A41D538C3B48C677442EB2155124AF977B0F1810C5FE38251D6C </t>
+  </si>
+  <si>
+    <t>89DAA7A558E3D6AC0DA32313AF7BDDCBA398B06EFA764113999D188C7D2759D9</t>
+  </si>
+  <si>
+    <t>E90C7451C22DCB0C12B6954AFB895D5B8481CE99FB320B3921D039423CBD86F1</t>
+  </si>
+  <si>
+    <t>3FA63BFD075033750E32752574B05C1B5EA361DA0073F58B6119F4B3EB6D849B</t>
+  </si>
+  <si>
+    <t>40F6148A1C97A98FB408CB18212C1014FDFFE0CC19C8E92C361D08C37DCC2266</t>
+  </si>
+  <si>
+    <t>1FC3FEDA65789F114B096A5CFACB94033B2752EB9325B9ABF06D499A453D364A</t>
+  </si>
+  <si>
+    <t>0B2D7E78529B783F903C5C10AB311091B8912FF329EF770C81993C21301AA4A6</t>
+  </si>
+  <si>
+    <t>EA757555DD46EF2855405A477959FB3DA47B7D3C1E376735819116ABC01DD00E</t>
+  </si>
+  <si>
+    <t>AA86D78644660A742813C200706005430B53EA12EACAE925FE3C47391B949538</t>
+  </si>
+  <si>
+    <t>A32A372BBECB1D686C08E75546CB865943675B2E2A164E03B56538B91B5A1A11</t>
+  </si>
+  <si>
+    <t>D25BEABF1816E2608DE38A375F3B78E824DFFCD0BF9839FAC649C7CB1CCBCE8E</t>
+  </si>
+  <si>
+    <t>DCA51A90CBCF4FB3694FF8F655D6A1C75701D1CED2A3051EC6F9463189252EF8</t>
+  </si>
+  <si>
+    <t>2549E4CBBCF6FDC9A183D95E3BFCEB0C4679D2EB5F7E240C3DA181535B306D7D</t>
+  </si>
+  <si>
+    <t>D63D5DA0334082476AC5110C17031D24599A745603A09965D217C3FA6D0E0111</t>
   </si>
 </sst>
 </file>
@@ -274,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -300,6 +441,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,54 +772,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +835,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -698,18 +847,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -724,7 +873,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -734,18 +885,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +911,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -770,18 +923,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +949,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -806,18 +961,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -830,9 +985,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -850,24 +1007,39 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -876,9 +1048,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -896,20 +1070,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -922,9 +1110,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -942,20 +1132,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -968,9 +1172,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -988,20 +1194,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1014,9 +1234,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1033,21 +1255,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1060,9 +1296,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1080,20 +1318,34 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1361,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,15 +1375,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1144,9 +1396,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1164,20 +1418,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1190,9 +1474,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1210,20 +1496,50 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1340,7 +1656,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1389,32 +1707,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1448,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1459,16 +1777,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1510,16 +1828,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1550,10 +1868,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1561,16 +1879,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1903,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1602,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1613,16 +1931,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1635,9 +1953,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1647,19 +1967,22 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,7 +1996,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1683,18 +2008,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/deden2904/evidence.xlsx
+++ b/deden2904/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deden\Downloads\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F454B0-15DB-4804-BFF4-0EAC66D9B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D172C7-D303-4638-BD56-296CC65F4057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
   <si>
     <t>TxHash</t>
   </si>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>D63D5DA0334082476AC5110C17031D24599A745603A09965D217C3FA6D0E0111</t>
+  </si>
+  <si>
+    <t>BF409476C5FD4F4CDA5B89DA5BC3151A25A3E043E1B78C08F18AFE00CB38CCE4</t>
+  </si>
+  <si>
+    <t>04C05DD977CE26D1DBE6E1C4CD6893BED6D06CEF5D1E08B65A0551DC5EE87553</t>
+  </si>
+  <si>
+    <t>D73F5942EC068229E88C0B7303426BCCA2716D4FCAA1157CCF2A743F97D3B265</t>
+  </si>
+  <si>
+    <t>91029197402CA61F185240B38CC3F79F94992C691A0AA5C88DDB5173924FED1F</t>
   </si>
 </sst>
 </file>
@@ -754,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1554,7 +1566,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1568,12 +1582,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1602,9 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1602,12 +1618,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/deden2904/evidence.xlsx
+++ b/deden2904/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deden\Downloads\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D172C7-D303-4638-BD56-296CC65F4057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6854B1-E6C1-446E-B0B2-4C373F0EF6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,21 +38,16 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B6 7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
-  </si>
-  <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
   <si>
     <t>ChainID</t>
@@ -329,6 +324,24 @@
   </si>
   <si>
     <t>91029197402CA61F185240B38CC3F79F94992C691A0AA5C88DDB5173924FED1F</t>
+  </si>
+  <si>
+    <t>93AA6B64CF53D3363CF47A9B414DF5F511ADECEF8530426AE7C21DE9B79986AF</t>
+  </si>
+  <si>
+    <t>B9C3DFDC1A7A5B61F3CA74DC10609E93EC4E692787CDD41CA16CAFF89F6A7BE9</t>
+  </si>
+  <si>
+    <t>D336C8E291E98F4924FD6596899550A2A9F470CE3BB2DA3DA2824EC75EF65516</t>
+  </si>
+  <si>
+    <t>84556FA0BCF4F88E8C842E852CA730FE307C8D757D15381BC45CC112D337042F</t>
+  </si>
+  <si>
+    <t>AB091D8440408E83B41508E5FAF6B8E3985A0F731434A9C95F0339BF4BF6B2D2</t>
+  </si>
+  <si>
+    <t>0B2DF8A70F0FF22CEE2E24A91D0C9FD13393B5FB9B6BF6D8F30F3572CA8C47E9</t>
   </si>
 </sst>
 </file>
@@ -784,54 +797,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -859,10 +872,48 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -878,15 +929,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,10 +948,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,15 +967,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -935,10 +986,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -954,15 +1005,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,34 +1024,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,49 +1090,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1077,55 +1152,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,55 +1214,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1201,55 +1276,155 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,55 +1438,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>67</v>
+      <c r="A2" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>70</v>
+      <c r="A5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1325,233 +1516,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1581,6 +1594,42 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>87</v>
       </c>
@@ -1595,15 +1644,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,27 +1667,29 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1652,28 +1703,28 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE63F3DA-9FF6-45AA-87C0-116C125E21EE}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1688,12 +1739,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1723,32 +1774,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1782,27 +1833,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1833,27 +1884,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1884,27 +1935,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1936,27 +1987,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1983,59 +2034,59 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
